--- a/tests/left_result.xlsx
+++ b/tests/left_result.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Gaze/Blind Spot Stimulus: III, White Date: Sep Central Background: 31.5 asb Time: 11:13 5/12 XX Strategy: SITA Fast Age: 51 0% Pupil Diameter: 6.0 mm * 0% Visual Acuity: 03:30 Rx: +1.25 DS Off</t>
+          <t>Fixation Monitor:,Gaze/Blind Spot,Stimulus:,III, White,Date:,Sep 08, 202,Fixation Target:,Central,Background:,31.5 asb,Time:,11:39 AM,Fixation Losses:,2/12,Strategy:,SITA Fast,Age:,56,False POS Errors:,2%,Pupil Diameter:,5.4 mm *,False NEG Errors:,0%,Visual Acuity:,est Duration:,03:13,Rx: +3.00 DS,ovea:,Off</t>
         </is>
       </c>
     </row>
